--- a/data/zenodo_ivan/conversion/passenger/CHE_convpassenger_hybgaso.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpassenger_hybgaso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35127DA-38A1-ED42-9153-BEB2908451D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09EA47F-E278-204A-A230-35493B08CACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>Enables the model to not use the capacity if required.</t>
   </si>
   <si>
-    <t>Maximum observed</t>
-  </si>
-  <si>
     <t>Mpkm/Mvkm</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>gasoline</t>
   </si>
   <si>
-    <t>litre_gasoline/Mvkm</t>
-  </si>
-  <si>
     <t>https://iea-etsap.org/E-TechDS/PDF/T04_HEVs_final_18Jun10_GS_OK_NH_VENERI_gs.pdf</t>
   </si>
   <si>
@@ -287,10 +281,16 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>Average of yearly total Mvkm/total car units. Must be the same for all car technologies. See passenger_private_cars.xlsx</t>
+    <t>Full usage of available cars.</t>
   </si>
   <si>
-    <t>Full usage of available cars.</t>
+    <t>Maximum observed*1.1</t>
+  </si>
+  <si>
+    <t>Average hourly travel per vehicle. Obtained via: total_Mvkm/total_car_units/8760. Must be the same for all car technologies. See passenger_private_cars.xlsx</t>
+  </si>
+  <si>
+    <t>Mvkm/litre_gasoline</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -833,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -842,23 +842,22 @@
         <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7">
-        <f>0.051*1000000</f>
-        <v>51000</v>
+        <v>1.9607843137254903E-5</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -866,7 +865,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -881,7 +880,7 @@
         <v>1.743955352</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
@@ -898,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -907,17 +906,17 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>18285</v>
+        <v>20114</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
         <v>38</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -925,19 +924,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>1.2886737000000001E-2</v>
+        <v>1.4710886986301371E-6</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -952,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -964,16 +963,16 @@
         <v>118.3</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -981,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -999,10 +998,10 @@
         <v>42</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1010,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -1029,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -1044,10 +1043,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -1059,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>52</v>
@@ -1071,7 +1070,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
         <v>53</v>
@@ -1088,7 +1087,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1103,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
         <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1117,7 +1116,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1132,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1146,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1161,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1175,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1190,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1204,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1219,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
         <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1233,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1248,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1262,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1277,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1291,7 +1290,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1306,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
         <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1320,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1335,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
         <v>38</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1349,7 +1348,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1364,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
         <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1378,7 +1377,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1393,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
         <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1407,7 +1406,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1422,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
         <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1436,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1451,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" t="s">
         <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1465,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1480,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30" t="s">
         <v>38</v>
       </c>
       <c r="L30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1494,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1509,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
         <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1523,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1538,13 +1537,13 @@
         <v>5.6401525853397327</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J32" t="s">
         <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1552,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1567,13 +1566,13 @@
         <v>23.546905960744706</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J33" t="s">
         <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1581,7 +1580,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1596,13 +1595,13 @@
         <v>60.286384320024901</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J34" t="s">
         <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1610,7 +1609,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1625,13 +1624,13 @@
         <v>126.35111242751542</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J35" t="s">
         <v>38</v>
       </c>
       <c r="L35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1639,7 +1638,7 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1654,13 +1653,13 @@
         <v>167.388141683599</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J36" t="s">
         <v>38</v>
       </c>
       <c r="L36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1668,7 +1667,7 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1683,13 +1682,13 @@
         <v>219.1214461138824</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" t="s">
         <v>38</v>
       </c>
       <c r="L37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1697,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1712,13 +1711,13 @@
         <v>278.72811358647476</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J38" t="s">
         <v>38</v>
       </c>
       <c r="L38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1726,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1741,13 +1740,13 @@
         <v>344.92681136616528</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J39" t="s">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1755,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1770,13 +1769,13 @@
         <v>418.86646666641923</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J40" t="s">
         <v>38</v>
       </c>
       <c r="L40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1784,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1799,13 +1798,13 @@
         <v>487.24382955626152</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J41" t="s">
         <v>38</v>
       </c>
       <c r="L41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1813,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1828,13 +1827,13 @@
         <v>551.68217709259909</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J42" t="s">
         <v>38</v>
       </c>
       <c r="L42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1842,7 +1841,7 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1857,13 +1856,13 @@
         <v>629.84707276586414</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J43" t="s">
         <v>38</v>
       </c>
       <c r="L43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1871,7 +1870,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1886,13 +1885,13 @@
         <v>728.4307795810488</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J44" t="s">
         <v>38</v>
       </c>
       <c r="L44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1900,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -1915,13 +1914,13 @@
         <v>835.01280869476386</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J45" t="s">
         <v>38</v>
       </c>
       <c r="L45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1929,7 +1928,7 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -1944,13 +1943,13 @@
         <v>1004.5850167314625</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J46" t="s">
         <v>38</v>
       </c>
       <c r="L46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1958,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -1973,16 +1972,16 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J47" t="s">
         <v>44</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1990,7 +1989,7 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -2005,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J48" t="s">
         <v>44</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2022,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -2037,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2054,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -2069,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2086,7 +2085,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -2101,16 +2100,16 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2118,7 +2117,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -2133,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2150,7 +2149,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -2165,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J53" t="s">
         <v>44</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2182,7 +2181,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2197,16 +2196,16 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J54" t="s">
         <v>44</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2214,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -2229,16 +2228,16 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J55" t="s">
         <v>44</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2246,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
@@ -2261,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J56" t="s">
         <v>44</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2278,7 +2277,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -2293,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J57" t="s">
         <v>44</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2310,7 +2309,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -2325,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2342,7 +2341,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -2357,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J59" t="s">
         <v>44</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2374,7 +2373,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -2389,16 +2388,16 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J60" t="s">
         <v>44</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2406,7 +2405,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -2421,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J61" t="s">
         <v>44</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2438,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -2453,16 +2452,16 @@
         <v>453</v>
       </c>
       <c r="H62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J62" t="s">
         <v>44</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2470,7 +2469,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -2485,16 +2484,16 @@
         <v>1899</v>
       </c>
       <c r="H63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J63" t="s">
         <v>44</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2502,7 +2501,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -2517,16 +2516,16 @@
         <v>4889</v>
       </c>
       <c r="H64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J64" t="s">
         <v>44</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2534,7 +2533,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -2549,16 +2548,16 @@
         <v>10097</v>
       </c>
       <c r="H65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J65" t="s">
         <v>44</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2566,7 +2565,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -2581,16 +2580,16 @@
         <v>13121</v>
       </c>
       <c r="H66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2598,7 +2597,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -2613,16 +2612,16 @@
         <v>17138</v>
       </c>
       <c r="H67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2630,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -2645,16 +2644,16 @@
         <v>21998</v>
       </c>
       <c r="H68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J68" t="s">
         <v>44</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2662,7 +2661,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -2677,16 +2676,16 @@
         <v>27290</v>
       </c>
       <c r="H69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2694,7 +2693,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -2709,16 +2708,16 @@
         <v>33056</v>
       </c>
       <c r="H70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J70" t="s">
         <v>44</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2726,7 +2725,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -2741,16 +2740,16 @@
         <v>38357</v>
       </c>
       <c r="H71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J71" t="s">
         <v>44</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2758,7 +2757,7 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -2773,16 +2772,16 @@
         <v>43396</v>
       </c>
       <c r="H72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J72" t="s">
         <v>44</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2790,7 +2789,7 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -2805,16 +2804,16 @@
         <v>49307</v>
       </c>
       <c r="H73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J73" t="s">
         <v>44</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2822,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -2837,16 +2836,16 @@
         <v>56638</v>
       </c>
       <c r="H74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J74" t="s">
         <v>44</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2854,7 +2853,7 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -2869,16 +2868,16 @@
         <v>64710</v>
       </c>
       <c r="H75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J75" t="s">
         <v>44</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2886,7 +2885,7 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -2901,16 +2900,16 @@
         <v>77576</v>
       </c>
       <c r="H76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J76" t="s">
         <v>44</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2918,7 +2917,7 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -2933,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J77" t="s">
         <v>45</v>
@@ -2942,7 +2941,7 @@
         <v>41</v>
       </c>
       <c r="L77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2950,7 +2949,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -2965,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J78" t="s">
         <v>45</v>
@@ -2974,7 +2973,7 @@
         <v>41</v>
       </c>
       <c r="L78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2982,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -2997,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J79" t="s">
         <v>45</v>
@@ -3006,7 +3005,7 @@
         <v>41</v>
       </c>
       <c r="L79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3014,7 +3013,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -3029,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J80" t="s">
         <v>45</v>
@@ -3038,7 +3037,7 @@
         <v>41</v>
       </c>
       <c r="L80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3046,7 +3045,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -3061,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J81" t="s">
         <v>45</v>
@@ -3070,7 +3069,7 @@
         <v>41</v>
       </c>
       <c r="L81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3078,7 +3077,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -3093,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J82" t="s">
         <v>45</v>
@@ -3102,7 +3101,7 @@
         <v>41</v>
       </c>
       <c r="L82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3110,7 +3109,7 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -3125,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J83" t="s">
         <v>45</v>
@@ -3134,7 +3133,7 @@
         <v>41</v>
       </c>
       <c r="L83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3142,7 +3141,7 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -3157,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
@@ -3166,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="L84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3174,7 +3173,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -3189,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
@@ -3198,7 +3197,7 @@
         <v>41</v>
       </c>
       <c r="L85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3206,7 +3205,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -3221,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
@@ -3230,7 +3229,7 @@
         <v>41</v>
       </c>
       <c r="L86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3238,7 +3237,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -3253,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
@@ -3262,7 +3261,7 @@
         <v>41</v>
       </c>
       <c r="L87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3270,7 +3269,7 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -3285,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J88" t="s">
         <v>45</v>
@@ -3294,7 +3293,7 @@
         <v>41</v>
       </c>
       <c r="L88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3302,7 +3301,7 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -3317,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J89" t="s">
         <v>45</v>
@@ -3326,7 +3325,7 @@
         <v>41</v>
       </c>
       <c r="L89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3334,7 +3333,7 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -3349,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J90" t="s">
         <v>45</v>
@@ -3358,7 +3357,7 @@
         <v>41</v>
       </c>
       <c r="L90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3366,7 +3365,7 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -3381,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J91" t="s">
         <v>45</v>
@@ -3390,7 +3389,7 @@
         <v>41</v>
       </c>
       <c r="L91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3398,7 +3397,7 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -3413,16 +3412,16 @@
         <v>604</v>
       </c>
       <c r="H92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J92" t="s">
         <v>44</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3430,7 +3429,7 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -3445,16 +3444,16 @@
         <v>1569</v>
       </c>
       <c r="H93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J93" t="s">
         <v>44</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3462,7 +3461,7 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -3477,16 +3476,16 @@
         <v>3219</v>
       </c>
       <c r="H94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J94" t="s">
         <v>44</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3494,7 +3493,7 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -3509,14 +3508,14 @@
         <v>5208</v>
       </c>
       <c r="H95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J95" t="s">
         <v>38</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3524,7 +3523,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -3539,16 +3538,16 @@
         <v>3875</v>
       </c>
       <c r="H96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3556,7 +3555,7 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -3571,16 +3570,16 @@
         <v>4213</v>
       </c>
       <c r="H97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J97" t="s">
         <v>44</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3588,7 +3587,7 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -3603,16 +3602,16 @@
         <v>5325</v>
       </c>
       <c r="H98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3620,7 +3619,7 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -3635,16 +3634,16 @@
         <v>5530</v>
       </c>
       <c r="H99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J99" t="s">
         <v>44</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3652,7 +3651,7 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -3667,16 +3666,16 @@
         <v>5966</v>
       </c>
       <c r="H100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J100" t="s">
         <v>44</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3684,7 +3683,7 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
@@ -3699,16 +3698,16 @@
         <v>5569</v>
       </c>
       <c r="H101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J101" t="s">
         <v>44</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3716,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -3731,16 +3730,16 @@
         <v>5458</v>
       </c>
       <c r="H102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J102" t="s">
         <v>44</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3748,7 +3747,7 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -3763,16 +3762,16 @@
         <v>7150</v>
       </c>
       <c r="H103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J103" t="s">
         <v>44</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3780,7 +3779,7 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
@@ -3795,16 +3794,16 @@
         <v>8186</v>
       </c>
       <c r="H104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J104" t="s">
         <v>44</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -3812,7 +3811,7 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C105" t="s">
         <v>18</v>
@@ -3827,16 +3826,16 @@
         <v>10434</v>
       </c>
       <c r="H105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J105" t="s">
         <v>44</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -3844,7 +3843,7 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
@@ -3859,16 +3858,16 @@
         <v>18285</v>
       </c>
       <c r="H106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -3876,7 +3875,7 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
@@ -3893,7 +3892,7 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -3908,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J108" t="s">
         <v>38</v>
       </c>
       <c r="L108" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -3922,7 +3921,7 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
@@ -3937,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J109" t="s">
         <v>38</v>
       </c>
       <c r="L109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -3951,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -3966,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J110" t="s">
         <v>38</v>
       </c>
       <c r="L110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -3980,7 +3979,7 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
@@ -3995,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J111" t="s">
         <v>38</v>
       </c>
       <c r="L111" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4009,7 +4008,7 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C112" t="s">
         <v>19</v>
@@ -4024,13 +4023,13 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J112" t="s">
         <v>38</v>
       </c>
       <c r="L112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4038,7 +4037,7 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
@@ -4053,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J113" t="s">
         <v>38</v>
       </c>
       <c r="L113" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4067,7 +4066,7 @@
         <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
@@ -4082,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J114" t="s">
         <v>38</v>
       </c>
       <c r="L114" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4096,7 +4095,7 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C115" t="s">
         <v>19</v>
@@ -4111,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J115" t="s">
         <v>38</v>
       </c>
       <c r="L115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4125,7 +4124,7 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C116" t="s">
         <v>19</v>
@@ -4140,13 +4139,13 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J116" t="s">
         <v>38</v>
       </c>
       <c r="L116" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4154,7 +4153,7 @@
         <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C117" t="s">
         <v>19</v>
@@ -4169,13 +4168,13 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J117" t="s">
         <v>38</v>
       </c>
       <c r="L117" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4183,7 +4182,7 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
@@ -4198,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J118" t="s">
         <v>38</v>
       </c>
       <c r="L118" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4212,7 +4211,7 @@
         <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
@@ -4227,13 +4226,13 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J119" t="s">
         <v>38</v>
       </c>
       <c r="L119" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4241,7 +4240,7 @@
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
@@ -4256,13 +4255,13 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J120" t="s">
         <v>38</v>
       </c>
       <c r="L120" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4270,7 +4269,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
@@ -4285,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J121" t="s">
         <v>38</v>
       </c>
       <c r="L121" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4299,7 +4298,7 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
@@ -4314,7 +4313,7 @@
         <v>151</v>
       </c>
       <c r="H122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J122" t="s">
         <v>38</v>
@@ -4328,7 +4327,7 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
@@ -4343,7 +4342,7 @@
         <v>123</v>
       </c>
       <c r="H123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J123" t="s">
         <v>38</v>
@@ -4357,7 +4356,7 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
         <v>19</v>
@@ -4372,7 +4371,7 @@
         <v>229</v>
       </c>
       <c r="H124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J124" t="s">
         <v>38</v>
@@ -4386,7 +4385,7 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
@@ -4401,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J125" t="s">
         <v>38</v>
@@ -4415,7 +4414,7 @@
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C126" t="s">
         <v>19</v>
@@ -4430,7 +4429,7 @@
         <v>851</v>
       </c>
       <c r="H126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J126" t="s">
         <v>38</v>
@@ -4444,7 +4443,7 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
@@ -4459,7 +4458,7 @@
         <v>196</v>
       </c>
       <c r="H127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J127" t="s">
         <v>38</v>
@@ -4473,7 +4472,7 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
@@ -4488,7 +4487,7 @@
         <v>465</v>
       </c>
       <c r="H128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J128" t="s">
         <v>38</v>
@@ -4502,7 +4501,7 @@
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C129" t="s">
         <v>19</v>
@@ -4517,7 +4516,7 @@
         <v>238</v>
       </c>
       <c r="H129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J129" t="s">
         <v>38</v>
@@ -4531,7 +4530,7 @@
         <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C130" t="s">
         <v>19</v>
@@ -4546,7 +4545,7 @@
         <v>200</v>
       </c>
       <c r="H130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J130" t="s">
         <v>38</v>
@@ -4560,7 +4559,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
@@ -4575,7 +4574,7 @@
         <v>268</v>
       </c>
       <c r="H131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J131" t="s">
         <v>38</v>
@@ -4589,7 +4588,7 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
@@ -4604,7 +4603,7 @@
         <v>419</v>
       </c>
       <c r="H132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J132" t="s">
         <v>38</v>
@@ -4618,7 +4617,7 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C133" t="s">
         <v>19</v>
@@ -4633,7 +4632,7 @@
         <v>1239</v>
       </c>
       <c r="H133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J133" t="s">
         <v>38</v>
@@ -4647,7 +4646,7 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C134" t="s">
         <v>19</v>
@@ -4662,7 +4661,7 @@
         <v>855</v>
       </c>
       <c r="H134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J134" t="s">
         <v>38</v>
@@ -4676,7 +4675,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C135" t="s">
         <v>19</v>
@@ -4691,7 +4690,7 @@
         <v>2362</v>
       </c>
       <c r="H135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J135" t="s">
         <v>38</v>
@@ -4705,7 +4704,7 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C136" t="s">
         <v>19</v>
@@ -4720,7 +4719,7 @@
         <v>5419</v>
       </c>
       <c r="H136" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J136" t="s">
         <v>38</v>
@@ -4734,7 +4733,7 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C137" t="s">
         <v>22</v>
@@ -4751,7 +4750,7 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C138" t="s">
         <v>22</v>
@@ -4768,7 +4767,7 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C139" t="s">
         <v>22</v>
@@ -4785,7 +4784,7 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
@@ -4802,7 +4801,7 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C141" t="s">
         <v>22</v>
@@ -4819,7 +4818,7 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C142" t="s">
         <v>22</v>
@@ -4836,7 +4835,7 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C143" t="s">
         <v>22</v>
@@ -4853,7 +4852,7 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
@@ -4870,7 +4869,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C145" t="s">
         <v>22</v>
@@ -4887,7 +4886,7 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C146" t="s">
         <v>22</v>
@@ -4904,7 +4903,7 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C147" t="s">
         <v>22</v>
@@ -4921,7 +4920,7 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C148" t="s">
         <v>22</v>
@@ -4938,7 +4937,7 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C149" t="s">
         <v>22</v>
@@ -4955,7 +4954,7 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C150" t="s">
         <v>22</v>
@@ -4972,7 +4971,7 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C151" t="s">
         <v>22</v>
@@ -4989,7 +4988,7 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C152" t="s">
         <v>22</v>
@@ -5006,7 +5005,7 @@
         <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -5023,7 +5022,7 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C154" t="s">
         <v>22</v>
@@ -5040,7 +5039,7 @@
         <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
@@ -5060,7 +5059,7 @@
         <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C156" t="s">
         <v>22</v>
@@ -5077,7 +5076,7 @@
         <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C157" t="s">
         <v>22</v>
@@ -5098,10 +5097,10 @@
         <v>42</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L157" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -5109,7 +5108,7 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C158" t="s">
         <v>22</v>
@@ -5126,7 +5125,7 @@
         <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C159" t="s">
         <v>22</v>
@@ -5143,7 +5142,7 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C160" t="s">
         <v>22</v>
@@ -5160,7 +5159,7 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
@@ -5177,7 +5176,7 @@
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C162" t="s">
         <v>22</v>
@@ -5194,7 +5193,7 @@
         <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
@@ -5211,7 +5210,7 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C164" t="s">
         <v>22</v>
@@ -5228,7 +5227,7 @@
         <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C165" t="s">
         <v>22</v>
@@ -5245,7 +5244,7 @@
         <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C166" t="s">
         <v>22</v>
@@ -5262,7 +5261,7 @@
         <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C167" t="s">
         <v>23</v>
@@ -5279,7 +5278,7 @@
         <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C168" t="s">
         <v>23</v>
@@ -5296,7 +5295,7 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C169" t="s">
         <v>23</v>
@@ -5313,7 +5312,7 @@
         <v>15</v>
       </c>
       <c r="B170" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C170" t="s">
         <v>23</v>
@@ -5330,7 +5329,7 @@
         <v>15</v>
       </c>
       <c r="B171" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C171" t="s">
         <v>23</v>
@@ -5347,7 +5346,7 @@
         <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C172" t="s">
         <v>23</v>
@@ -5364,7 +5363,7 @@
         <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C173" t="s">
         <v>23</v>
@@ -5381,7 +5380,7 @@
         <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C174" t="s">
         <v>23</v>
@@ -5398,7 +5397,7 @@
         <v>15</v>
       </c>
       <c r="B175" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C175" t="s">
         <v>23</v>
@@ -5415,7 +5414,7 @@
         <v>15</v>
       </c>
       <c r="B176" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C176" t="s">
         <v>23</v>
@@ -5432,7 +5431,7 @@
         <v>15</v>
       </c>
       <c r="B177" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C177" t="s">
         <v>23</v>
@@ -5449,7 +5448,7 @@
         <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C178" t="s">
         <v>23</v>
@@ -5466,7 +5465,7 @@
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C179" t="s">
         <v>23</v>
@@ -5483,7 +5482,7 @@
         <v>15</v>
       </c>
       <c r="B180" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C180" t="s">
         <v>23</v>
@@ -5500,7 +5499,7 @@
         <v>15</v>
       </c>
       <c r="B181" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C181" t="s">
         <v>23</v>
@@ -5517,7 +5516,7 @@
         <v>15</v>
       </c>
       <c r="B182" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C182" t="s">
         <v>23</v>
@@ -5534,7 +5533,7 @@
         <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C183" t="s">
         <v>23</v>
@@ -5551,7 +5550,7 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C184" t="s">
         <v>23</v>
@@ -5568,7 +5567,7 @@
         <v>15</v>
       </c>
       <c r="B185" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C185" t="s">
         <v>23</v>
@@ -5585,7 +5584,7 @@
         <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C186" t="s">
         <v>23</v>
@@ -5602,7 +5601,7 @@
         <v>15</v>
       </c>
       <c r="B187" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C187" t="s">
         <v>23</v>
@@ -5623,10 +5622,10 @@
         <v>42</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -5634,7 +5633,7 @@
         <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C188" t="s">
         <v>23</v>
@@ -5651,7 +5650,7 @@
         <v>15</v>
       </c>
       <c r="B189" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C189" t="s">
         <v>23</v>
@@ -5668,7 +5667,7 @@
         <v>15</v>
       </c>
       <c r="B190" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C190" t="s">
         <v>23</v>
@@ -5685,7 +5684,7 @@
         <v>15</v>
       </c>
       <c r="B191" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C191" t="s">
         <v>23</v>
@@ -5702,7 +5701,7 @@
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C192" t="s">
         <v>23</v>
@@ -5719,7 +5718,7 @@
         <v>15</v>
       </c>
       <c r="B193" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C193" t="s">
         <v>23</v>
@@ -5736,7 +5735,7 @@
         <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C194" t="s">
         <v>23</v>
@@ -5753,7 +5752,7 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C195" t="s">
         <v>23</v>
@@ -5770,7 +5769,7 @@
         <v>15</v>
       </c>
       <c r="B196" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
@@ -5787,7 +5786,7 @@
         <v>15</v>
       </c>
       <c r="B197" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C197" t="s">
         <v>24</v>
@@ -5804,7 +5803,7 @@
         <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C198" t="s">
         <v>24</v>
@@ -5821,7 +5820,7 @@
         <v>15</v>
       </c>
       <c r="B199" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
@@ -5838,7 +5837,7 @@
         <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C200" t="s">
         <v>24</v>
@@ -5855,7 +5854,7 @@
         <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C201" t="s">
         <v>24</v>
@@ -5872,7 +5871,7 @@
         <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C202" t="s">
         <v>24</v>
@@ -5889,7 +5888,7 @@
         <v>15</v>
       </c>
       <c r="B203" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C203" t="s">
         <v>24</v>
@@ -5906,7 +5905,7 @@
         <v>15</v>
       </c>
       <c r="B204" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C204" t="s">
         <v>24</v>
@@ -5923,7 +5922,7 @@
         <v>15</v>
       </c>
       <c r="B205" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
@@ -5940,7 +5939,7 @@
         <v>15</v>
       </c>
       <c r="B206" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C206" t="s">
         <v>24</v>
@@ -5957,7 +5956,7 @@
         <v>15</v>
       </c>
       <c r="B207" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C207" t="s">
         <v>24</v>
@@ -5974,7 +5973,7 @@
         <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C208" t="s">
         <v>24</v>
@@ -5991,7 +5990,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C209" t="s">
         <v>24</v>
@@ -6008,7 +6007,7 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C210" t="s">
         <v>24</v>
@@ -6025,7 +6024,7 @@
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C211" t="s">
         <v>24</v>
@@ -6042,7 +6041,7 @@
         <v>15</v>
       </c>
       <c r="B212" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C212" t="s">
         <v>24</v>
@@ -6059,7 +6058,7 @@
         <v>15</v>
       </c>
       <c r="B213" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C213" t="s">
         <v>24</v>
@@ -6076,7 +6075,7 @@
         <v>15</v>
       </c>
       <c r="B214" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C214" t="s">
         <v>24</v>
@@ -6093,7 +6092,7 @@
         <v>15</v>
       </c>
       <c r="B215" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C215" t="s">
         <v>24</v>
@@ -6110,7 +6109,7 @@
         <v>15</v>
       </c>
       <c r="B216" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C216" t="s">
         <v>24</v>
@@ -6127,7 +6126,7 @@
         <v>15</v>
       </c>
       <c r="B217" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C217" t="s">
         <v>24</v>
@@ -6142,16 +6141,16 @@
         <v>44000</v>
       </c>
       <c r="H217" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J217" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L217" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -6159,7 +6158,7 @@
         <v>15</v>
       </c>
       <c r="B218" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C218" t="s">
         <v>24</v>
@@ -6176,7 +6175,7 @@
         <v>15</v>
       </c>
       <c r="B219" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C219" t="s">
         <v>24</v>
@@ -6193,7 +6192,7 @@
         <v>15</v>
       </c>
       <c r="B220" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C220" t="s">
         <v>24</v>
@@ -6210,7 +6209,7 @@
         <v>15</v>
       </c>
       <c r="B221" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C221" t="s">
         <v>24</v>
@@ -6227,7 +6226,7 @@
         <v>15</v>
       </c>
       <c r="B222" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C222" t="s">
         <v>24</v>
@@ -6244,7 +6243,7 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C223" t="s">
         <v>24</v>
@@ -6261,7 +6260,7 @@
         <v>15</v>
       </c>
       <c r="B224" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C224" t="s">
         <v>24</v>
@@ -6278,7 +6277,7 @@
         <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C225" t="s">
         <v>24</v>
@@ -6295,7 +6294,7 @@
         <v>15</v>
       </c>
       <c r="B226" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C226" t="s">
         <v>24</v>
@@ -6312,7 +6311,7 @@
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C227" t="s">
         <v>25</v>
@@ -6329,7 +6328,7 @@
         <v>15</v>
       </c>
       <c r="B228" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C228" t="s">
         <v>25</v>
@@ -6358,7 +6357,7 @@
         <v>15</v>
       </c>
       <c r="B229" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C229" t="s">
         <v>25</v>
@@ -6387,7 +6386,7 @@
         <v>15</v>
       </c>
       <c r="B230" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C230" t="s">
         <v>25</v>
@@ -6416,7 +6415,7 @@
         <v>15</v>
       </c>
       <c r="B231" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C231" t="s">
         <v>25</v>
@@ -6445,7 +6444,7 @@
         <v>15</v>
       </c>
       <c r="B232" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C232" t="s">
         <v>25</v>
@@ -6474,7 +6473,7 @@
         <v>15</v>
       </c>
       <c r="B233" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C233" t="s">
         <v>25</v>
@@ -6503,7 +6502,7 @@
         <v>15</v>
       </c>
       <c r="B234" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C234" t="s">
         <v>25</v>
@@ -6532,7 +6531,7 @@
         <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C235" t="s">
         <v>25</v>
@@ -6561,7 +6560,7 @@
         <v>15</v>
       </c>
       <c r="B236" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C236" t="s">
         <v>25</v>
@@ -6590,7 +6589,7 @@
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C237" t="s">
         <v>25</v>
@@ -6619,7 +6618,7 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C238" t="s">
         <v>25</v>
@@ -6648,7 +6647,7 @@
         <v>15</v>
       </c>
       <c r="B239" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C239" t="s">
         <v>25</v>
@@ -6677,7 +6676,7 @@
         <v>15</v>
       </c>
       <c r="B240" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C240" t="s">
         <v>25</v>
@@ -6706,7 +6705,7 @@
         <v>15</v>
       </c>
       <c r="B241" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C241" t="s">
         <v>25</v>
@@ -6735,7 +6734,7 @@
         <v>15</v>
       </c>
       <c r="B242" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C242" t="s">
         <v>25</v>
@@ -6764,7 +6763,7 @@
         <v>15</v>
       </c>
       <c r="B243" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C243" t="s">
         <v>25</v>
@@ -6793,7 +6792,7 @@
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C244" t="s">
         <v>25</v>
@@ -6822,7 +6821,7 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C245" t="s">
         <v>25</v>
@@ -6851,7 +6850,7 @@
         <v>15</v>
       </c>
       <c r="B246" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C246" t="s">
         <v>25</v>
@@ -6880,7 +6879,7 @@
         <v>15</v>
       </c>
       <c r="B247" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C247" t="s">
         <v>25</v>
@@ -6909,7 +6908,7 @@
         <v>15</v>
       </c>
       <c r="B248" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C248" t="s">
         <v>25</v>
@@ -6938,7 +6937,7 @@
         <v>15</v>
       </c>
       <c r="B249" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C249" t="s">
         <v>25</v>
@@ -6967,7 +6966,7 @@
         <v>15</v>
       </c>
       <c r="B250" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C250" t="s">
         <v>25</v>
@@ -6996,7 +6995,7 @@
         <v>15</v>
       </c>
       <c r="B251" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C251" t="s">
         <v>25</v>
@@ -7025,7 +7024,7 @@
         <v>15</v>
       </c>
       <c r="B252" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C252" t="s">
         <v>25</v>
@@ -7054,7 +7053,7 @@
         <v>15</v>
       </c>
       <c r="B253" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C253" t="s">
         <v>25</v>
@@ -7083,7 +7082,7 @@
         <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C254" t="s">
         <v>25</v>
@@ -7112,7 +7111,7 @@
         <v>15</v>
       </c>
       <c r="B255" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C255" t="s">
         <v>25</v>
@@ -7141,7 +7140,7 @@
         <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C256" t="s">
         <v>25</v>
@@ -7170,7 +7169,7 @@
         <v>15</v>
       </c>
       <c r="B257" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
@@ -7189,7 +7188,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7197,7 +7196,7 @@
         <v>15</v>
       </c>
       <c r="B258" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
@@ -7216,7 +7215,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7224,7 +7223,7 @@
         <v>15</v>
       </c>
       <c r="B259" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
@@ -7243,7 +7242,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7251,7 +7250,7 @@
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
@@ -7270,7 +7269,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7278,7 +7277,7 @@
         <v>15</v>
       </c>
       <c r="B261" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
@@ -7297,7 +7296,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7305,7 +7304,7 @@
         <v>15</v>
       </c>
       <c r="B262" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
@@ -7324,7 +7323,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7332,7 +7331,7 @@
         <v>15</v>
       </c>
       <c r="B263" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
@@ -7351,7 +7350,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7359,7 +7358,7 @@
         <v>15</v>
       </c>
       <c r="B264" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
@@ -7378,7 +7377,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7386,7 +7385,7 @@
         <v>15</v>
       </c>
       <c r="B265" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
@@ -7405,7 +7404,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -7413,7 +7412,7 @@
         <v>15</v>
       </c>
       <c r="B266" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C266" t="s">
         <v>26</v>
@@ -7432,7 +7431,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -7440,7 +7439,7 @@
         <v>15</v>
       </c>
       <c r="B267" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -7459,7 +7458,7 @@
       </c>
       <c r="K267" s="2"/>
       <c r="L267" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -7467,7 +7466,7 @@
         <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C268" t="s">
         <v>26</v>
@@ -7486,7 +7485,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -7494,7 +7493,7 @@
         <v>15</v>
       </c>
       <c r="B269" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C269" t="s">
         <v>26</v>
@@ -7513,7 +7512,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -7521,7 +7520,7 @@
         <v>15</v>
       </c>
       <c r="B270" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C270" t="s">
         <v>26</v>
@@ -7540,7 +7539,7 @@
       </c>
       <c r="K270" s="2"/>
       <c r="L270" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -7548,7 +7547,7 @@
         <v>15</v>
       </c>
       <c r="B271" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -7567,7 +7566,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -7575,7 +7574,7 @@
         <v>15</v>
       </c>
       <c r="B272" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C272" t="s">
         <v>26</v>
@@ -7594,7 +7593,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -7602,7 +7601,7 @@
         <v>15</v>
       </c>
       <c r="B273" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C273" t="s">
         <v>26</v>
@@ -7621,7 +7620,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -7629,7 +7628,7 @@
         <v>15</v>
       </c>
       <c r="B274" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C274" t="s">
         <v>26</v>
@@ -7648,7 +7647,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -7656,7 +7655,7 @@
         <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C275" t="s">
         <v>26</v>
@@ -7675,7 +7674,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -7683,7 +7682,7 @@
         <v>15</v>
       </c>
       <c r="B276" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C276" t="s">
         <v>26</v>
@@ -7702,7 +7701,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -7710,7 +7709,7 @@
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C277" t="s">
         <v>26</v>
@@ -7729,7 +7728,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -7737,7 +7736,7 @@
         <v>15</v>
       </c>
       <c r="B278" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C278" t="s">
         <v>26</v>
@@ -7756,7 +7755,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -7764,7 +7763,7 @@
         <v>15</v>
       </c>
       <c r="B279" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C279" t="s">
         <v>26</v>
@@ -7783,7 +7782,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -7791,7 +7790,7 @@
         <v>15</v>
       </c>
       <c r="B280" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C280" t="s">
         <v>26</v>
@@ -7810,7 +7809,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -7818,7 +7817,7 @@
         <v>15</v>
       </c>
       <c r="B281" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C281" t="s">
         <v>26</v>
@@ -7837,7 +7836,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -7845,7 +7844,7 @@
         <v>15</v>
       </c>
       <c r="B282" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C282" t="s">
         <v>26</v>
@@ -7864,7 +7863,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -7872,7 +7871,7 @@
         <v>15</v>
       </c>
       <c r="B283" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C283" t="s">
         <v>26</v>
@@ -7891,7 +7890,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -7899,7 +7898,7 @@
         <v>15</v>
       </c>
       <c r="B284" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C284" t="s">
         <v>26</v>
@@ -7918,7 +7917,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -7926,7 +7925,7 @@
         <v>15</v>
       </c>
       <c r="B285" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C285" t="s">
         <v>26</v>
@@ -7945,7 +7944,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -7953,7 +7952,7 @@
         <v>15</v>
       </c>
       <c r="B286" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C286" t="s">
         <v>26</v>
@@ -7972,7 +7971,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -7980,7 +7979,7 @@
         <v>15</v>
       </c>
       <c r="B287" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -8006,7 +8005,7 @@
         <v>15</v>
       </c>
       <c r="B288" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C288" t="s">
         <v>27</v>
@@ -8032,7 +8031,7 @@
         <v>15</v>
       </c>
       <c r="B289" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C289" t="s">
         <v>27</v>
@@ -8058,7 +8057,7 @@
         <v>15</v>
       </c>
       <c r="B290" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C290" t="s">
         <v>27</v>
@@ -8084,7 +8083,7 @@
         <v>15</v>
       </c>
       <c r="B291" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C291" t="s">
         <v>27</v>
@@ -8110,7 +8109,7 @@
         <v>15</v>
       </c>
       <c r="B292" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -8136,7 +8135,7 @@
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C293" t="s">
         <v>27</v>
@@ -8162,7 +8161,7 @@
         <v>15</v>
       </c>
       <c r="B294" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -8188,7 +8187,7 @@
         <v>15</v>
       </c>
       <c r="B295" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
@@ -8214,7 +8213,7 @@
         <v>15</v>
       </c>
       <c r="B296" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C296" t="s">
         <v>27</v>
@@ -8240,7 +8239,7 @@
         <v>15</v>
       </c>
       <c r="B297" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C297" t="s">
         <v>27</v>
@@ -8266,7 +8265,7 @@
         <v>15</v>
       </c>
       <c r="B298" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C298" t="s">
         <v>27</v>
@@ -8292,7 +8291,7 @@
         <v>15</v>
       </c>
       <c r="B299" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C299" t="s">
         <v>27</v>
@@ -8318,7 +8317,7 @@
         <v>15</v>
       </c>
       <c r="B300" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C300" t="s">
         <v>27</v>
@@ -8344,7 +8343,7 @@
         <v>15</v>
       </c>
       <c r="B301" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C301" t="s">
         <v>27</v>
@@ -8370,7 +8369,7 @@
         <v>15</v>
       </c>
       <c r="B302" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C302" t="s">
         <v>27</v>
@@ -8396,7 +8395,7 @@
         <v>15</v>
       </c>
       <c r="B303" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C303" t="s">
         <v>27</v>
@@ -8422,7 +8421,7 @@
         <v>15</v>
       </c>
       <c r="B304" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C304" t="s">
         <v>27</v>
@@ -8448,7 +8447,7 @@
         <v>15</v>
       </c>
       <c r="B305" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C305" t="s">
         <v>27</v>
@@ -8474,7 +8473,7 @@
         <v>15</v>
       </c>
       <c r="B306" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C306" t="s">
         <v>27</v>
@@ -8500,7 +8499,7 @@
         <v>15</v>
       </c>
       <c r="B307" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C307" t="s">
         <v>27</v>
@@ -8526,7 +8525,7 @@
         <v>15</v>
       </c>
       <c r="B308" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C308" t="s">
         <v>27</v>
@@ -8552,7 +8551,7 @@
         <v>15</v>
       </c>
       <c r="B309" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C309" t="s">
         <v>27</v>
@@ -8578,7 +8577,7 @@
         <v>15</v>
       </c>
       <c r="B310" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C310" t="s">
         <v>27</v>
@@ -8604,7 +8603,7 @@
         <v>15</v>
       </c>
       <c r="B311" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C311" t="s">
         <v>27</v>
@@ -8630,7 +8629,7 @@
         <v>15</v>
       </c>
       <c r="B312" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C312" t="s">
         <v>27</v>
@@ -8656,7 +8655,7 @@
         <v>15</v>
       </c>
       <c r="B313" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C313" t="s">
         <v>27</v>
@@ -8682,7 +8681,7 @@
         <v>15</v>
       </c>
       <c r="B314" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C314" t="s">
         <v>27</v>
@@ -8708,7 +8707,7 @@
         <v>15</v>
       </c>
       <c r="B315" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C315" t="s">
         <v>27</v>
@@ -8734,7 +8733,7 @@
         <v>15</v>
       </c>
       <c r="B316" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C316" t="s">
         <v>27</v>
